--- a/Data/EC/NIT-9006534515.xlsx
+++ b/Data/EC/NIT-9006534515.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F47088D-3939-4EBC-97F9-5137ED0A9A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CB0D99A-AE1E-42D9-BA67-4DA6B6ED1135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1354F388-9BB1-4914-AE47-F65FCC4F5047}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B8DE462B-D89E-4104-98E4-243C3DAF92F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="73">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,196 +65,163 @@
     <t>CC</t>
   </si>
   <si>
-    <t>73196259</t>
-  </si>
-  <si>
-    <t>ALONSO CORTES PEREIRA</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>73574623</t>
-  </si>
-  <si>
-    <t>NELSON ENRIQUE CABARCAS MARQUEZ</t>
+    <t>929162</t>
+  </si>
+  <si>
+    <t>JUAN ANTONIO TAPIAS CESPEDES</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1047445177</t>
+  </si>
+  <si>
+    <t>DAIRYS BERNUIL LEDESMA CASTILLO</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1047375045</t>
+  </si>
+  <si>
+    <t>SANTANDER PEREZ CASTRO</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
   </si>
   <si>
     <t>1911</t>
   </si>
   <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>73132414</t>
-  </si>
-  <si>
-    <t>FELIX MORELO ANAYA</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>73150251</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO MANGONES BARROSO</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>1047375045</t>
-  </si>
-  <si>
-    <t>SANTANDER PEREZ CASTRO</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>929162</t>
-  </si>
-  <si>
-    <t>JUAN ANTONIO TAPIAS CESPEDES</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1047445177</t>
-  </si>
-  <si>
-    <t>DAIRYS BERNUIL LEDESMA CASTILLO</t>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
   </si>
   <si>
     <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -353,7 +320,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -366,9 +335,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -568,23 +535,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -612,10 +579,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -668,7 +635,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8FCC463-E230-4014-3F01-2615A4205D0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6113F637-8D4A-47FA-A2BB-36EBDB70C5AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1019,8 +986,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE50FB8-77F0-4085-9EA6-6936FD9C04F3}">
-  <dimension ref="B2:J93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B412E69-22D9-4DC2-B165-C7F4A0D2A4CB}">
+  <dimension ref="B2:J81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1031,7 +998,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1044,7 +1011,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1089,7 +1056,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1121,12 +1088,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1965559</v>
+        <v>1582845</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1137,17 +1104,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F13" s="5">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1174,13 +1141,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1197,10 +1164,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>35112</v>
+        <v>12900</v>
       </c>
       <c r="G16" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1220,10 +1187,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>35112</v>
+        <v>12900</v>
       </c>
       <c r="G17" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1234,16 +1201,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>12900</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1257,16 +1224,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>12900</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1280,16 +1247,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>12900</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1303,16 +1270,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>12900</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1326,16 +1293,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>19350</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1349,16 +1316,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>19350</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1372,16 +1339,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>19350</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1395,16 +1362,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>19350</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1418,16 +1385,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>19350</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1441,16 +1408,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>19350</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1464,19 +1431,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>33125</v>
+        <v>19350</v>
       </c>
       <c r="G28" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1487,19 +1454,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>33125</v>
+        <v>19350</v>
       </c>
       <c r="G29" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1510,19 +1477,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>33125</v>
+        <v>19350</v>
       </c>
       <c r="G30" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1533,19 +1500,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>33125</v>
+        <v>19350</v>
       </c>
       <c r="G31" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1556,16 +1523,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>19350</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1579,16 +1546,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>19350</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1602,16 +1569,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>25800</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1625,16 +1592,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>25800</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1648,16 +1615,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>25800</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1671,16 +1638,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>25800</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1694,16 +1661,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>25800</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1717,16 +1684,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>25800</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1740,16 +1707,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>25800</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1763,16 +1730,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>25800</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1786,16 +1753,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>25800</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1809,16 +1776,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>25800</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -1832,16 +1799,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F44" s="18">
-        <v>25800</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -1855,16 +1822,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F45" s="18">
-        <v>25800</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1878,16 +1845,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>25800</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
         <v>781242</v>
@@ -1901,16 +1868,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>25800</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -1924,16 +1891,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F48" s="18">
-        <v>25800</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -1947,16 +1914,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F49" s="18">
-        <v>25800</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -1970,16 +1937,16 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F50" s="18">
-        <v>19350</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -1993,16 +1960,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F51" s="18">
-        <v>19350</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -2016,16 +1983,16 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F52" s="18">
-        <v>19350</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -2039,19 +2006,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F53" s="18">
-        <v>19350</v>
+        <v>33125</v>
       </c>
       <c r="G53" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2062,16 +2029,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F54" s="18">
-        <v>19350</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2085,16 +2052,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F55" s="18">
-        <v>19350</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2108,19 +2075,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F56" s="18">
-        <v>19350</v>
+        <v>33125</v>
       </c>
       <c r="G56" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2131,16 +2098,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F57" s="18">
-        <v>19350</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2154,16 +2121,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F58" s="18">
-        <v>19350</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2177,19 +2144,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F59" s="18">
-        <v>19350</v>
+        <v>33125</v>
       </c>
       <c r="G59" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2200,16 +2167,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F60" s="18">
-        <v>19350</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
         <v>781242</v>
@@ -2223,16 +2190,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F61" s="18">
-        <v>19350</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2246,19 +2213,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F62" s="18">
-        <v>12900</v>
+        <v>33125</v>
       </c>
       <c r="G62" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2269,16 +2236,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F63" s="18">
-        <v>12900</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2292,16 +2259,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F64" s="18">
-        <v>12900</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2315,16 +2282,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F65" s="18">
-        <v>12900</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2338,16 +2305,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F66" s="18">
-        <v>12900</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2361,16 +2328,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F67" s="18">
-        <v>12900</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2384,16 +2351,16 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F68" s="18">
-        <v>28124</v>
+        <v>31249</v>
       </c>
       <c r="G68" s="18">
         <v>781242</v>
@@ -2407,13 +2374,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2430,13 +2397,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2453,13 +2420,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2476,13 +2443,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2499,13 +2466,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2522,13 +2489,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2541,332 +2508,56 @@
       <c r="J74" s="20"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B75" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G75" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B76" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F76" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G76" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G77" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F78" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G78" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F79" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G79" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
+      <c r="B75" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F75" s="24">
+        <v>28124</v>
+      </c>
+      <c r="G75" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B80" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F80" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G80" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
+      <c r="B80" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" s="32"/>
+      <c r="H80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B81" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F81" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G81" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B82" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F82" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G82" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B83" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F83" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G83" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B84" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F84" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G84" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B85" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F85" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G85" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B86" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F86" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G86" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B87" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D87" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E87" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F87" s="24">
-        <v>31249</v>
-      </c>
-      <c r="G87" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B92" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C92" s="32"/>
-      <c r="H92" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B93" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C93" s="32"/>
-      <c r="H93" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
+      <c r="B81" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81" s="32"/>
+      <c r="H81" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H80:J80"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
